--- a/Stocks/TATACOFFEE.xlsx
+++ b/Stocks/TATACOFFEE.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="35">
   <si>
     <t>Scrip</t>
   </si>
@@ -601,7 +601,7 @@
         <v>127.13333333333333</v>
       </c>
       <c r="H2" t="e">
-        <f t="array" ref="H2:H82">_xll.TA_EMA(G2:G82,3)</f>
+        <f t="array" ref="H2:H104">_xll.TA_EMA(G2:G104,3)</f>
         <v>#N/A</v>
       </c>
       <c r="I2" t="e">
@@ -609,11 +609,11 @@
         <v>#N/A</v>
       </c>
       <c r="J2" t="e">
-        <f t="array" ref="J2:J82">_xll.TA_EMA(D2:D82,8)</f>
+        <f t="array" ref="J2:J104">_xll.TA_EMA(D2:D104,8)</f>
         <v>#N/A</v>
       </c>
       <c r="K2" t="e">
-        <f t="array" ref="K2:K82">_xll.TA_EMA(E2:E82,8)</f>
+        <f t="array" ref="K2:K104">_xll.TA_EMA(E2:E104,8)</f>
         <v>#N/A</v>
       </c>
       <c r="L2" t="e">
@@ -625,7 +625,7 @@
         <v>#N/A</v>
       </c>
       <c r="N2" t="e">
-        <f t="array" ref="N2:N82">_xll.TA_RSI(F2:F82,5)</f>
+        <f t="array" ref="N2:N104">_xll.TA_RSI(F2:F104,5)</f>
         <v>#N/A</v>
       </c>
       <c r="O2" t="e">
@@ -657,11 +657,11 @@
         <v>#N/A</v>
       </c>
       <c r="V2" t="e">
-        <f t="array" ref="V2:V82">_xll.TA_EMA(F2:F82,12)</f>
+        <f t="array" ref="V2:V104">_xll.TA_EMA(F2:F104,12)</f>
         <v>#N/A</v>
       </c>
       <c r="W2" t="e">
-        <f t="array" ref="W2:W82">_xll.TA_EMA(F2:F82,26)</f>
+        <f t="array" ref="W2:W104">_xll.TA_EMA(F2:F104,26)</f>
         <v>#N/A</v>
       </c>
       <c r="X2" t="e">
@@ -669,7 +669,7 @@
         <v>#N/A</v>
       </c>
       <c r="Y2" t="e">
-        <f t="array" ref="Y2:Y82">_xll.TA_EMA(X2:X82,9)</f>
+        <f t="array" ref="Y2:Y104">_xll.TA_EMA(X2:X104,9)</f>
         <v>#N/A</v>
       </c>
       <c r="Z2" t="e">
@@ -8696,7 +8696,7 @@
         <v>129.8151486629682</v>
       </c>
       <c r="I67" t="str">
-        <f t="shared" ref="I67:I82" si="20">IF(F67&gt;H67,"UP","DOWN")</f>
+        <f t="shared" ref="I67:I104" si="20">IF(F67&gt;H67,"UP","DOWN")</f>
         <v>DOWN</v>
       </c>
       <c r="J67">
@@ -8706,42 +8706,42 @@
         <v>131.28035911208403</v>
       </c>
       <c r="L67" t="str">
-        <f t="shared" ref="L67:L82" si="21">IF(F67&gt;J67,"UP",IF(F67&lt;K67,"DOWN","No Confirmation"))</f>
+        <f t="shared" ref="L67:L104" si="21">IF(F67&gt;J67,"UP",IF(F67&lt;K67,"DOWN","No Confirmation"))</f>
         <v>DOWN</v>
       </c>
       <c r="M67" t="str">
-        <f t="shared" ref="M67:M82" si="22">IF(AND(I67="UP",L67="UP"),"UP",IF(AND(I67="DOWN",L67="DOWN"),"DOWN","No Trend"))</f>
+        <f t="shared" ref="M67:M104" si="22">IF(AND(I67="UP",L67="UP"),"UP",IF(AND(I67="DOWN",L67="DOWN"),"DOWN","No Trend"))</f>
         <v>DOWN</v>
       </c>
       <c r="N67">
         <v>20.048666758473825</v>
       </c>
       <c r="O67" t="str">
-        <f t="shared" ref="O67:O82" si="23">IF(N67&gt;60,"UP",IF(N67&lt;40,"DOWN","No Momentum"))</f>
+        <f t="shared" ref="O67:O104" si="23">IF(N67&gt;60,"UP",IF(N67&lt;40,"DOWN","No Momentum"))</f>
         <v>DOWN</v>
       </c>
       <c r="P67" t="str">
-        <f t="shared" ref="P67:P82" si="24">IF(AND(M67="UP",O67="UP"),"UP",IF(AND(M67="DOWN",O67="DOWN"),"DOWN","No Trend + Momentum"))</f>
+        <f t="shared" ref="P67:P104" si="24">IF(AND(M67="UP",O67="UP"),"UP",IF(AND(M67="DOWN",O67="DOWN"),"DOWN","No Trend + Momentum"))</f>
         <v>DOWN</v>
       </c>
       <c r="Q67">
-        <f t="shared" ref="Q67:Q82" si="25">F67-E67</f>
+        <f t="shared" ref="Q67:Q104" si="25">F67-E67</f>
         <v>0.15000000000000568</v>
       </c>
       <c r="R67">
-        <f t="shared" ref="R67:R82" si="26">D67-E67</f>
+        <f t="shared" ref="R67:R104" si="26">D67-E67</f>
         <v>3.3000000000000114</v>
       </c>
       <c r="S67">
-        <f t="shared" ref="S67:S82" si="27">Q67/R67</f>
+        <f t="shared" ref="S67:S104" si="27">Q67/R67</f>
         <v>4.5454545454547017E-2</v>
       </c>
       <c r="T67" t="str">
-        <f t="shared" ref="T67:T82" si="28">IF(S67&gt;0.8,"UP",IF(S67&lt;0.2,"DOWN","No Indication"))</f>
+        <f t="shared" ref="T67:T104" si="28">IF(S67&gt;0.8,"UP",IF(S67&lt;0.2,"DOWN","No Indication"))</f>
         <v>DOWN</v>
       </c>
       <c r="U67" t="str">
-        <f t="shared" ref="U67:U82" si="29">IF(AND(P67="UP",T67="UP"),"UP",IF(AND(P67="DOWN",T67="DOWN"),"DOWN","No T+M+I"))</f>
+        <f t="shared" ref="U67:U104" si="29">IF(AND(P67="UP",T67="UP"),"UP",IF(AND(P67="DOWN",T67="DOWN"),"DOWN","No T+M+I"))</f>
         <v>DOWN</v>
       </c>
       <c r="V67">
@@ -8751,42 +8751,42 @@
         <v>134.89455714935016</v>
       </c>
       <c r="X67">
-        <f t="shared" ref="X67:X82" si="30">V67-W67</f>
+        <f t="shared" ref="X67:X104" si="30">V67-W67</f>
         <v>-1.4182938907646871</v>
       </c>
       <c r="Y67">
         <v>0.2984446333991061</v>
       </c>
       <c r="Z67" t="str">
-        <f t="shared" ref="Z67:Z82" si="31">IF(X67&gt;Y67,"UP",IF(X67&lt;Y67,"DOWN","No Indication"))</f>
+        <f t="shared" ref="Z67:Z104" si="31">IF(X67&gt;Y67,"UP",IF(X67&lt;Y67,"DOWN","No Indication"))</f>
         <v>DOWN</v>
       </c>
       <c r="AA67" t="str">
-        <f t="shared" ref="AA67:AA82" si="32">IF(AND(U67="UP",Z67="UP"),"UP",IF(AND(U67="DOWN",Z67="DOWN"),"DOWN","No TMIM"))</f>
+        <f t="shared" ref="AA67:AA104" si="32">IF(AND(U67="UP",Z67="UP"),"UP",IF(AND(U67="DOWN",Z67="DOWN"),"DOWN","No TMIM"))</f>
         <v>DOWN</v>
       </c>
       <c r="AB67" t="str">
-        <f t="shared" ref="AB67:AB82" si="33">IF(H67&gt;J67,"UP",IF(H67&lt;K67,"DOWN","No Confirmation"))</f>
+        <f t="shared" ref="AB67:AB104" si="33">IF(H67&gt;J67,"UP",IF(H67&lt;K67,"DOWN","No Confirmation"))</f>
         <v>DOWN</v>
       </c>
       <c r="AC67" t="str">
-        <f t="shared" ref="AC67:AC82" si="34">IF(AND(AA67="UP",AB67="UP"),"UP",IF(AND(AA67="DOWN",AB67="DOWN"),"DOWN","No Alert"))</f>
+        <f t="shared" ref="AC67:AC104" si="34">IF(AND(AA67="UP",AB67="UP"),"UP",IF(AND(AA67="DOWN",AB67="DOWN"),"DOWN","No Alert"))</f>
         <v>DOWN</v>
       </c>
       <c r="AD67">
-        <f t="shared" ref="AD67:AD82" si="35">IF(AC67="UP",MROUND(D67-((D67-E67)*0.886),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.886),0.05),"No Alert"))</f>
+        <f t="shared" ref="AD67:AD104" si="35">IF(AC67="UP",MROUND(D67-((D67-E67)*0.886),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.886),0.05),"No Alert"))</f>
         <v>130.75</v>
       </c>
       <c r="AE67">
-        <f t="shared" ref="AE67:AE82" si="36">IF(AC67="UP",MROUND(D67-((D67-E67)*0.618),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.618),0.05),"No Alert"))</f>
+        <f t="shared" ref="AE67:AE104" si="36">IF(AC67="UP",MROUND(D67-((D67-E67)*0.618),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.618),0.05),"No Alert"))</f>
         <v>129.9</v>
       </c>
       <c r="AF67">
-        <f t="shared" ref="AF67:AF82" si="37">IF(AC67="UP",MROUND(D67-((D67-E67)*0.5),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.5),0.05),"No Alert"))</f>
+        <f t="shared" ref="AF67:AF104" si="37">IF(AC67="UP",MROUND(D67-((D67-E67)*0.5),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.5),0.05),"No Alert"))</f>
         <v>129.5</v>
       </c>
       <c r="AG67">
-        <f t="shared" ref="AG67:AG82" si="38">IF(AC67="UP",MROUND(D67-((D67-E67)*0.382),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.382),0.05),"No Alert"))</f>
+        <f t="shared" ref="AG67:AG104" si="38">IF(AC67="UP",MROUND(D67-((D67-E67)*0.382),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.382),0.05),"No Alert"))</f>
         <v>129.1</v>
       </c>
     </row>
@@ -10606,93 +10606,2689 @@
       </c>
     </row>
     <row r="83" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B83" s="1"/>
+      <c r="A83" t="s">
+        <v>5</v>
+      </c>
+      <c r="B83" s="1">
+        <v>42975</v>
+      </c>
+      <c r="C83">
+        <v>132</v>
+      </c>
+      <c r="D83">
+        <v>135.65</v>
+      </c>
+      <c r="E83">
+        <v>131.5</v>
+      </c>
+      <c r="F83">
+        <v>132.65</v>
+      </c>
+      <c r="G83">
+        <f>_xll.TA_TYPPRICE(D83,E83,F83)</f>
+        <v>133.26666666666665</v>
+      </c>
+      <c r="H83">
+        <v>133.46578239667758</v>
+      </c>
+      <c r="I83" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J83">
+        <v>135.28259969003989</v>
+      </c>
+      <c r="K83">
+        <v>130.48893424058454</v>
+      </c>
+      <c r="L83" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M83" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N83">
+        <v>51.719068776867559</v>
+      </c>
+      <c r="O83" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P83" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q83">
+        <f t="shared" si="25"/>
+        <v>1.1500000000000057</v>
+      </c>
+      <c r="R83">
+        <f t="shared" si="26"/>
+        <v>4.1500000000000057</v>
+      </c>
+      <c r="S83">
+        <f t="shared" si="27"/>
+        <v>0.27710843373494076</v>
+      </c>
+      <c r="T83" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U83" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V83">
+        <v>131.93745523343645</v>
+      </c>
+      <c r="W83">
+        <v>131.85083502920614</v>
+      </c>
+      <c r="X83">
+        <f t="shared" si="30"/>
+        <v>8.6620204230314357E-2</v>
+      </c>
+      <c r="Y83">
+        <v>-0.80298614320238237</v>
+      </c>
+      <c r="Z83" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA83" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB83" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC83" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD83" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE83" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF83" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG83" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="84" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B84" s="1"/>
+      <c r="A84" t="s">
+        <v>5</v>
+      </c>
+      <c r="B84" s="1">
+        <v>42976</v>
+      </c>
+      <c r="C84">
+        <v>131.6</v>
+      </c>
+      <c r="D84">
+        <v>134.5</v>
+      </c>
+      <c r="E84">
+        <v>130.69999999999999</v>
+      </c>
+      <c r="F84">
+        <v>132</v>
+      </c>
+      <c r="G84">
+        <f>_xll.TA_TYPPRICE(D84,E84,F84)</f>
+        <v>132.4</v>
+      </c>
+      <c r="H84">
+        <v>132.93289119833878</v>
+      </c>
+      <c r="I84" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J84">
+        <v>135.1086886478088</v>
+      </c>
+      <c r="K84">
+        <v>130.53583774267688</v>
+      </c>
+      <c r="L84" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M84" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N84">
+        <v>48.005545850022308</v>
+      </c>
+      <c r="O84" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P84" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q84">
+        <f t="shared" si="25"/>
+        <v>1.3000000000000114</v>
+      </c>
+      <c r="R84">
+        <f t="shared" si="26"/>
+        <v>3.8000000000000114</v>
+      </c>
+      <c r="S84">
+        <f t="shared" si="27"/>
+        <v>0.34210526315789669</v>
+      </c>
+      <c r="T84" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U84" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V84">
+        <v>131.94707750521545</v>
+      </c>
+      <c r="W84">
+        <v>131.86188428630197</v>
+      </c>
+      <c r="X84">
+        <f t="shared" si="30"/>
+        <v>8.5193218913474311E-2</v>
+      </c>
+      <c r="Y84">
+        <v>-0.62535027077921101</v>
+      </c>
+      <c r="Z84" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA84" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB84" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC84" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD84" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE84" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF84" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG84" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="85" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B85" s="1"/>
+      <c r="A85" t="s">
+        <v>5</v>
+      </c>
+      <c r="B85" s="1">
+        <v>42977</v>
+      </c>
+      <c r="C85">
+        <v>132.85</v>
+      </c>
+      <c r="D85">
+        <v>136.44999999999999</v>
+      </c>
+      <c r="E85">
+        <v>131.94999999999999</v>
+      </c>
+      <c r="F85">
+        <v>136</v>
+      </c>
+      <c r="G85">
+        <f>_xll.TA_TYPPRICE(D85,E85,F85)</f>
+        <v>134.79999999999998</v>
+      </c>
+      <c r="H85">
+        <v>133.86644559916937</v>
+      </c>
+      <c r="I85" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J85">
+        <v>135.40675783718461</v>
+      </c>
+      <c r="K85">
+        <v>130.850096022082</v>
+      </c>
+      <c r="L85" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M85" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N85">
+        <v>66.505360260301899</v>
+      </c>
+      <c r="O85" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P85" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q85">
+        <f t="shared" si="25"/>
+        <v>4.0500000000000114</v>
+      </c>
+      <c r="R85">
+        <f t="shared" si="26"/>
+        <v>4.5</v>
+      </c>
+      <c r="S85">
+        <f t="shared" si="27"/>
+        <v>0.90000000000000258</v>
+      </c>
+      <c r="T85" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U85" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V85">
+        <v>132.57060404287461</v>
+      </c>
+      <c r="W85">
+        <v>132.16841137620554</v>
+      </c>
+      <c r="X85">
+        <f t="shared" si="30"/>
+        <v>0.40219266666906606</v>
+      </c>
+      <c r="Y85">
+        <v>-0.41984168328955557</v>
+      </c>
+      <c r="Z85" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA85" t="str">
+        <f t="shared" si="32"/>
+        <v>UP</v>
+      </c>
+      <c r="AB85" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC85" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD85" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE85" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF85" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG85" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="86" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B86" s="1"/>
+      <c r="A86" t="s">
+        <v>5</v>
+      </c>
+      <c r="B86" s="1">
+        <v>42978</v>
+      </c>
+      <c r="C86">
+        <v>136.1</v>
+      </c>
+      <c r="D86">
+        <v>139.80000000000001</v>
+      </c>
+      <c r="E86">
+        <v>136</v>
+      </c>
+      <c r="F86">
+        <v>137.80000000000001</v>
+      </c>
+      <c r="G86">
+        <f>_xll.TA_TYPPRICE(D86,E86,F86)</f>
+        <v>137.86666666666667</v>
+      </c>
+      <c r="H86">
+        <v>135.86655613291802</v>
+      </c>
+      <c r="I86" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J86">
+        <v>136.3830338733658</v>
+      </c>
+      <c r="K86">
+        <v>131.99451912828599</v>
+      </c>
+      <c r="L86" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M86" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N86">
+        <v>72.091045325970654</v>
+      </c>
+      <c r="O86" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P86" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q86">
+        <f t="shared" si="25"/>
+        <v>1.8000000000000114</v>
+      </c>
+      <c r="R86">
+        <f t="shared" si="26"/>
+        <v>3.8000000000000114</v>
+      </c>
+      <c r="S86">
+        <f t="shared" si="27"/>
+        <v>0.47368421052631737</v>
+      </c>
+      <c r="T86" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U86" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V86">
+        <v>133.37512649781698</v>
+      </c>
+      <c r="W86">
+        <v>132.58556608907921</v>
+      </c>
+      <c r="X86">
+        <f t="shared" si="30"/>
+        <v>0.78956040873777056</v>
+      </c>
+      <c r="Y86">
+        <v>-0.17796126488409034</v>
+      </c>
+      <c r="Z86" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA86" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB86" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC86" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD86" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE86" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF86" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG86" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="87" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B87" s="1"/>
+      <c r="A87" t="s">
+        <v>5</v>
+      </c>
+      <c r="B87" s="1">
+        <v>42979</v>
+      </c>
+      <c r="C87">
+        <v>137.80000000000001</v>
+      </c>
+      <c r="D87">
+        <v>140.75</v>
+      </c>
+      <c r="E87">
+        <v>137.5</v>
+      </c>
+      <c r="F87">
+        <v>139.85</v>
+      </c>
+      <c r="G87">
+        <f>_xll.TA_TYPPRICE(D87,E87,F87)</f>
+        <v>139.36666666666667</v>
+      </c>
+      <c r="H87">
+        <v>137.61661139979236</v>
+      </c>
+      <c r="I87" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J87">
+        <v>137.35347079039562</v>
+      </c>
+      <c r="K87">
+        <v>133.21795932200021</v>
+      </c>
+      <c r="L87" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M87" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N87">
+        <v>77.445604228665715</v>
+      </c>
+      <c r="O87" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P87" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q87">
+        <f t="shared" si="25"/>
+        <v>2.3499999999999943</v>
+      </c>
+      <c r="R87">
+        <f t="shared" si="26"/>
+        <v>3.25</v>
+      </c>
+      <c r="S87">
+        <f t="shared" si="27"/>
+        <v>0.72307692307692129</v>
+      </c>
+      <c r="T87" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U87" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V87">
+        <v>134.37126088276821</v>
+      </c>
+      <c r="W87">
+        <v>133.12367230470298</v>
+      </c>
+      <c r="X87">
+        <f t="shared" si="30"/>
+        <v>1.2475885780652334</v>
+      </c>
+      <c r="Y87">
+        <v>0.10714870370577442</v>
+      </c>
+      <c r="Z87" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA87" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB87" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC87" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD87" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE87" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF87" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG87" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="88" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B88" s="1"/>
+      <c r="A88" t="s">
+        <v>5</v>
+      </c>
+      <c r="B88" s="1">
+        <v>42982</v>
+      </c>
+      <c r="C88">
+        <v>139</v>
+      </c>
+      <c r="D88">
+        <v>141.4</v>
+      </c>
+      <c r="E88">
+        <v>137.65</v>
+      </c>
+      <c r="F88">
+        <v>140.1</v>
+      </c>
+      <c r="G88">
+        <f>_xll.TA_TYPPRICE(D88,E88,F88)</f>
+        <v>139.71666666666667</v>
+      </c>
+      <c r="H88">
+        <v>138.6666390332295</v>
+      </c>
+      <c r="I88" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J88">
+        <v>138.25269950364103</v>
+      </c>
+      <c r="K88">
+        <v>134.20285725044462</v>
+      </c>
+      <c r="L88" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M88" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N88">
+        <v>78.08650090713509</v>
+      </c>
+      <c r="O88" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P88" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q88">
+        <f t="shared" si="25"/>
+        <v>2.4499999999999886</v>
+      </c>
+      <c r="R88">
+        <f t="shared" si="26"/>
+        <v>3.75</v>
+      </c>
+      <c r="S88">
+        <f t="shared" si="27"/>
+        <v>0.65333333333333032</v>
+      </c>
+      <c r="T88" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U88" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V88">
+        <v>135.25260536234234</v>
+      </c>
+      <c r="W88">
+        <v>133.64043731916942</v>
+      </c>
+      <c r="X88">
+        <f t="shared" si="30"/>
+        <v>1.6121680431729146</v>
+      </c>
+      <c r="Y88">
+        <v>0.40815257159920248</v>
+      </c>
+      <c r="Z88" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA88" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB88" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC88" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD88" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE88" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF88" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG88" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="89" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B89" s="1"/>
+      <c r="A89" t="s">
+        <v>5</v>
+      </c>
+      <c r="B89" s="1">
+        <v>42983</v>
+      </c>
+      <c r="C89">
+        <v>141</v>
+      </c>
+      <c r="D89">
+        <v>145.6</v>
+      </c>
+      <c r="E89">
+        <v>140.4</v>
+      </c>
+      <c r="F89">
+        <v>145</v>
+      </c>
+      <c r="G89">
+        <f>_xll.TA_TYPPRICE(D89,E89,F89)</f>
+        <v>143.66666666666666</v>
+      </c>
+      <c r="H89">
+        <v>141.16665284994809</v>
+      </c>
+      <c r="I89" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J89">
+        <v>139.88543294727634</v>
+      </c>
+      <c r="K89">
+        <v>135.58000008367915</v>
+      </c>
+      <c r="L89" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M89" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N89">
+        <v>87.080692608759364</v>
+      </c>
+      <c r="O89" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P89" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q89">
+        <f t="shared" si="25"/>
+        <v>4.5999999999999943</v>
+      </c>
+      <c r="R89">
+        <f t="shared" si="26"/>
+        <v>5.1999999999999886</v>
+      </c>
+      <c r="S89">
+        <f t="shared" si="27"/>
+        <v>0.88461538461538547</v>
+      </c>
+      <c r="T89" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U89" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V89">
+        <v>136.75220453736659</v>
+      </c>
+      <c r="W89">
+        <v>134.48188640663835</v>
+      </c>
+      <c r="X89">
+        <f t="shared" si="30"/>
+        <v>2.2703181307282421</v>
+      </c>
+      <c r="Y89">
+        <v>0.78058568342501045</v>
+      </c>
+      <c r="Z89" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA89" t="str">
+        <f t="shared" si="32"/>
+        <v>UP</v>
+      </c>
+      <c r="AB89" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC89" t="str">
+        <f t="shared" si="34"/>
+        <v>UP</v>
+      </c>
+      <c r="AD89">
+        <f t="shared" si="35"/>
+        <v>141</v>
+      </c>
+      <c r="AE89">
+        <f t="shared" si="36"/>
+        <v>142.4</v>
+      </c>
+      <c r="AF89">
+        <f t="shared" si="37"/>
+        <v>143</v>
+      </c>
+      <c r="AG89">
+        <f t="shared" si="38"/>
+        <v>143.6</v>
+      </c>
     </row>
     <row r="90" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B90" s="1"/>
+      <c r="A90" t="s">
+        <v>5</v>
+      </c>
+      <c r="B90" s="1">
+        <v>42984</v>
+      </c>
+      <c r="C90">
+        <v>144</v>
+      </c>
+      <c r="D90">
+        <v>154</v>
+      </c>
+      <c r="E90">
+        <v>142.4</v>
+      </c>
+      <c r="F90">
+        <v>152.9</v>
+      </c>
+      <c r="G90">
+        <f>_xll.TA_TYPPRICE(D90,E90,F90)</f>
+        <v>149.76666666666665</v>
+      </c>
+      <c r="H90">
+        <v>145.46665975830737</v>
+      </c>
+      <c r="I90" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J90">
+        <v>143.02200340343717</v>
+      </c>
+      <c r="K90">
+        <v>137.09555562063935</v>
+      </c>
+      <c r="L90" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M90" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N90">
+        <v>92.929310144064985</v>
+      </c>
+      <c r="O90" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P90" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q90">
+        <f t="shared" si="25"/>
+        <v>10.5</v>
+      </c>
+      <c r="R90">
+        <f t="shared" si="26"/>
+        <v>11.599999999999994</v>
+      </c>
+      <c r="S90">
+        <f t="shared" si="27"/>
+        <v>0.90517241379310387</v>
+      </c>
+      <c r="T90" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U90" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V90">
+        <v>139.23648076238712</v>
+      </c>
+      <c r="W90">
+        <v>135.84619111725775</v>
+      </c>
+      <c r="X90">
+        <f t="shared" si="30"/>
+        <v>3.3902896451293714</v>
+      </c>
+      <c r="Y90">
+        <v>1.3025264757658825</v>
+      </c>
+      <c r="Z90" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA90" t="str">
+        <f t="shared" si="32"/>
+        <v>UP</v>
+      </c>
+      <c r="AB90" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC90" t="str">
+        <f t="shared" si="34"/>
+        <v>UP</v>
+      </c>
+      <c r="AD90">
+        <f t="shared" si="35"/>
+        <v>143.70000000000002</v>
+      </c>
+      <c r="AE90">
+        <f t="shared" si="36"/>
+        <v>146.85</v>
+      </c>
+      <c r="AF90">
+        <f t="shared" si="37"/>
+        <v>148.20000000000002</v>
+      </c>
+      <c r="AG90">
+        <f t="shared" si="38"/>
+        <v>149.55000000000001</v>
+      </c>
     </row>
     <row r="91" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B91" s="1"/>
+      <c r="A91" t="s">
+        <v>5</v>
+      </c>
+      <c r="B91" s="1">
+        <v>42985</v>
+      </c>
+      <c r="C91">
+        <v>153.85</v>
+      </c>
+      <c r="D91">
+        <v>155</v>
+      </c>
+      <c r="E91">
+        <v>147.5</v>
+      </c>
+      <c r="F91">
+        <v>147.94999999999999</v>
+      </c>
+      <c r="G91">
+        <f>_xll.TA_TYPPRICE(D91,E91,F91)</f>
+        <v>150.15</v>
+      </c>
+      <c r="H91">
+        <v>147.80832987915369</v>
+      </c>
+      <c r="I91" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J91">
+        <v>145.68378042489559</v>
+      </c>
+      <c r="K91">
+        <v>139.40765437160837</v>
+      </c>
+      <c r="L91" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M91" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N91">
+        <v>68.604282698661052</v>
+      </c>
+      <c r="O91" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P91" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q91">
+        <f t="shared" si="25"/>
+        <v>0.44999999999998863</v>
+      </c>
+      <c r="R91">
+        <f t="shared" si="26"/>
+        <v>7.5</v>
+      </c>
+      <c r="S91">
+        <f t="shared" si="27"/>
+        <v>5.9999999999998485E-2</v>
+      </c>
+      <c r="T91" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U91" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V91">
+        <v>140.57702218355834</v>
+      </c>
+      <c r="W91">
+        <v>136.74276955301644</v>
+      </c>
+      <c r="X91">
+        <f t="shared" si="30"/>
+        <v>3.8342526305418971</v>
+      </c>
+      <c r="Y91">
+        <v>1.8088717067210855</v>
+      </c>
+      <c r="Z91" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA91" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB91" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC91" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD91" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE91" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF91" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG91" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="92" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B92" s="1"/>
+      <c r="A92" t="s">
+        <v>5</v>
+      </c>
+      <c r="B92" s="1">
+        <v>42986</v>
+      </c>
+      <c r="C92">
+        <v>149</v>
+      </c>
+      <c r="D92">
+        <v>153.30000000000001</v>
+      </c>
+      <c r="E92">
+        <v>146.55000000000001</v>
+      </c>
+      <c r="F92">
+        <v>147.30000000000001</v>
+      </c>
+      <c r="G92">
+        <f>_xll.TA_TYPPRICE(D92,E92,F92)</f>
+        <v>149.05000000000001</v>
+      </c>
+      <c r="H92">
+        <v>148.42916493957685</v>
+      </c>
+      <c r="I92" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J92">
+        <v>147.37627366380769</v>
+      </c>
+      <c r="K92">
+        <v>140.99484228902872</v>
+      </c>
+      <c r="L92" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M92" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N92">
+        <v>65.778100700071406</v>
+      </c>
+      <c r="O92" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P92" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q92">
+        <f t="shared" si="25"/>
+        <v>0.75</v>
+      </c>
+      <c r="R92">
+        <f t="shared" si="26"/>
+        <v>6.75</v>
+      </c>
+      <c r="S92">
+        <f t="shared" si="27"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="T92" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U92" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V92">
+        <v>141.6113264630109</v>
+      </c>
+      <c r="W92">
+        <v>137.52478662316338</v>
+      </c>
+      <c r="X92">
+        <f t="shared" si="30"/>
+        <v>4.0865398398475179</v>
+      </c>
+      <c r="Y92">
+        <v>2.2644053333463718</v>
+      </c>
+      <c r="Z92" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA92" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB92" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC92" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD92" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE92" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF92" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG92" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="93" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B93" s="1"/>
+      <c r="A93" t="s">
+        <v>5</v>
+      </c>
+      <c r="B93" s="1">
+        <v>42989</v>
+      </c>
+      <c r="C93">
+        <v>148.75</v>
+      </c>
+      <c r="D93">
+        <v>152.65</v>
+      </c>
+      <c r="E93">
+        <v>148</v>
+      </c>
+      <c r="F93">
+        <v>152.6</v>
+      </c>
+      <c r="G93">
+        <f>_xll.TA_TYPPRICE(D93,E93,F93)</f>
+        <v>151.08333333333334</v>
+      </c>
+      <c r="H93">
+        <v>149.7562491364551</v>
+      </c>
+      <c r="I93" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J93">
+        <v>148.54821284962821</v>
+      </c>
+      <c r="K93">
+        <v>142.55154400257788</v>
+      </c>
+      <c r="L93" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M93" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N93">
+        <v>75.89797234778969</v>
+      </c>
+      <c r="O93" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P93" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q93">
+        <f t="shared" si="25"/>
+        <v>4.5999999999999943</v>
+      </c>
+      <c r="R93">
+        <f t="shared" si="26"/>
+        <v>4.6500000000000057</v>
+      </c>
+      <c r="S93">
+        <f t="shared" si="27"/>
+        <v>0.98924731182795456</v>
+      </c>
+      <c r="T93" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U93" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V93">
+        <v>143.30189162254769</v>
+      </c>
+      <c r="W93">
+        <v>138.64146909552164</v>
+      </c>
+      <c r="X93">
+        <f t="shared" si="30"/>
+        <v>4.6604225270260429</v>
+      </c>
+      <c r="Y93">
+        <v>2.7436087720823061</v>
+      </c>
+      <c r="Z93" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA93" t="str">
+        <f t="shared" si="32"/>
+        <v>UP</v>
+      </c>
+      <c r="AB93" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC93" t="str">
+        <f t="shared" si="34"/>
+        <v>UP</v>
+      </c>
+      <c r="AD93">
+        <f t="shared" si="35"/>
+        <v>148.55000000000001</v>
+      </c>
+      <c r="AE93">
+        <f t="shared" si="36"/>
+        <v>149.80000000000001</v>
+      </c>
+      <c r="AF93">
+        <f t="shared" si="37"/>
+        <v>150.30000000000001</v>
+      </c>
+      <c r="AG93">
+        <f t="shared" si="38"/>
+        <v>150.85</v>
+      </c>
     </row>
     <row r="94" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B94" s="1"/>
+      <c r="A94" t="s">
+        <v>5</v>
+      </c>
+      <c r="B94" s="1">
+        <v>42990</v>
+      </c>
+      <c r="C94">
+        <v>170</v>
+      </c>
+      <c r="D94">
+        <v>174.9</v>
+      </c>
+      <c r="E94">
+        <v>162.19999999999999</v>
+      </c>
+      <c r="F94">
+        <v>164</v>
+      </c>
+      <c r="G94">
+        <f>_xll.TA_TYPPRICE(D94,E94,F94)</f>
+        <v>167.03333333333333</v>
+      </c>
+      <c r="H94">
+        <v>158.39479123489423</v>
+      </c>
+      <c r="I94" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J94">
+        <v>154.40416554971083</v>
+      </c>
+      <c r="K94">
+        <v>146.91786755756058</v>
+      </c>
+      <c r="L94" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M94" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N94">
+        <v>86.573272091358504</v>
+      </c>
+      <c r="O94" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P94" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q94">
+        <f t="shared" si="25"/>
+        <v>1.8000000000000114</v>
+      </c>
+      <c r="R94">
+        <f t="shared" si="26"/>
+        <v>12.700000000000017</v>
+      </c>
+      <c r="S94">
+        <f t="shared" si="27"/>
+        <v>0.14173228346456762</v>
+      </c>
+      <c r="T94" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U94" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V94">
+        <v>146.48621598830957</v>
+      </c>
+      <c r="W94">
+        <v>140.51987879214968</v>
+      </c>
+      <c r="X94">
+        <f t="shared" si="30"/>
+        <v>5.9663371961598841</v>
+      </c>
+      <c r="Y94">
+        <v>3.3881544568978219</v>
+      </c>
+      <c r="Z94" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA94" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB94" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC94" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD94" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE94" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF94" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG94" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="95" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B95" s="1"/>
+      <c r="A95" t="s">
+        <v>5</v>
+      </c>
+      <c r="B95" s="1">
+        <v>42991</v>
+      </c>
+      <c r="C95">
+        <v>164.65</v>
+      </c>
+      <c r="D95">
+        <v>165.5</v>
+      </c>
+      <c r="E95">
+        <v>157</v>
+      </c>
+      <c r="F95">
+        <v>157.6</v>
+      </c>
+      <c r="G95">
+        <f>_xll.TA_TYPPRICE(D95,E95,F95)</f>
+        <v>160.03333333333333</v>
+      </c>
+      <c r="H95">
+        <v>159.21406228411377</v>
+      </c>
+      <c r="I95" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J95">
+        <v>156.86990653866397</v>
+      </c>
+      <c r="K95">
+        <v>149.15834143365822</v>
+      </c>
+      <c r="L95" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M95" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N95">
+        <v>66.045029480072387</v>
+      </c>
+      <c r="O95" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P95" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q95">
+        <f t="shared" si="25"/>
+        <v>0.59999999999999432</v>
+      </c>
+      <c r="R95">
+        <f t="shared" si="26"/>
+        <v>8.5</v>
+      </c>
+      <c r="S95">
+        <f t="shared" si="27"/>
+        <v>7.058823529411698E-2</v>
+      </c>
+      <c r="T95" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U95" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V95">
+        <v>148.19602891318502</v>
+      </c>
+      <c r="W95">
+        <v>141.78507295569415</v>
+      </c>
+      <c r="X95">
+        <f t="shared" si="30"/>
+        <v>6.4109559574908701</v>
+      </c>
+      <c r="Y95">
+        <v>3.9927147570164316</v>
+      </c>
+      <c r="Z95" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA95" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB95" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC95" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD95" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE95" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF95" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG95" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="96" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B96" s="1"/>
-    </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B97" s="1"/>
-    </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B98" s="1"/>
-    </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B99" s="1"/>
-    </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B100" s="1"/>
-    </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B101" s="1"/>
-    </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B102" s="1"/>
-    </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B103" s="1"/>
-    </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B104" s="1"/>
-    </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>5</v>
+      </c>
+      <c r="B96" s="1">
+        <v>42992</v>
+      </c>
+      <c r="C96">
+        <v>158.69999999999999</v>
+      </c>
+      <c r="D96">
+        <v>164.5</v>
+      </c>
+      <c r="E96">
+        <v>155.1</v>
+      </c>
+      <c r="F96">
+        <v>164.05</v>
+      </c>
+      <c r="G96">
+        <f>_xll.TA_TYPPRICE(D96,E96,F96)</f>
+        <v>161.21666666666667</v>
+      </c>
+      <c r="H96">
+        <v>160.21536447539023</v>
+      </c>
+      <c r="I96" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J96">
+        <v>158.56548286340532</v>
+      </c>
+      <c r="K96">
+        <v>150.47871000395639</v>
+      </c>
+      <c r="L96" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M96" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N96">
+        <v>73.854957694360195</v>
+      </c>
+      <c r="O96" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P96" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q96">
+        <f t="shared" si="25"/>
+        <v>8.9500000000000171</v>
+      </c>
+      <c r="R96">
+        <f t="shared" si="26"/>
+        <v>9.4000000000000057</v>
+      </c>
+      <c r="S96">
+        <f t="shared" si="27"/>
+        <v>0.95212765957446932</v>
+      </c>
+      <c r="T96" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U96" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V96">
+        <v>150.63510138807962</v>
+      </c>
+      <c r="W96">
+        <v>143.43432681082791</v>
+      </c>
+      <c r="X96">
+        <f t="shared" si="30"/>
+        <v>7.2007745772517069</v>
+      </c>
+      <c r="Y96">
+        <v>4.6343267210634869</v>
+      </c>
+      <c r="Z96" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA96" t="str">
+        <f t="shared" si="32"/>
+        <v>UP</v>
+      </c>
+      <c r="AB96" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC96" t="str">
+        <f t="shared" si="34"/>
+        <v>UP</v>
+      </c>
+      <c r="AD96">
+        <f t="shared" si="35"/>
+        <v>156.15</v>
+      </c>
+      <c r="AE96">
+        <f t="shared" si="36"/>
+        <v>158.70000000000002</v>
+      </c>
+      <c r="AF96">
+        <f t="shared" si="37"/>
+        <v>159.80000000000001</v>
+      </c>
+      <c r="AG96">
+        <f t="shared" si="38"/>
+        <v>160.9</v>
+      </c>
+    </row>
+    <row r="97" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>5</v>
+      </c>
+      <c r="B97" s="1">
+        <v>42993</v>
+      </c>
+      <c r="C97">
+        <v>162.19999999999999</v>
+      </c>
+      <c r="D97">
+        <v>164.4</v>
+      </c>
+      <c r="E97">
+        <v>157.19999999999999</v>
+      </c>
+      <c r="F97">
+        <v>160.6</v>
+      </c>
+      <c r="G97">
+        <f>_xll.TA_TYPPRICE(D97,E97,F97)</f>
+        <v>160.73333333333335</v>
+      </c>
+      <c r="H97">
+        <v>160.47434890436179</v>
+      </c>
+      <c r="I97" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J97">
+        <v>159.86204222709304</v>
+      </c>
+      <c r="K97">
+        <v>151.97233000307719</v>
+      </c>
+      <c r="L97" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M97" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N97">
+        <v>64.011040251891799</v>
+      </c>
+      <c r="O97" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P97" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q97">
+        <f t="shared" si="25"/>
+        <v>3.4000000000000057</v>
+      </c>
+      <c r="R97">
+        <f t="shared" si="26"/>
+        <v>7.2000000000000171</v>
+      </c>
+      <c r="S97">
+        <f t="shared" si="27"/>
+        <v>0.47222222222222188</v>
+      </c>
+      <c r="T97" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U97" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V97">
+        <v>152.16816271299044</v>
+      </c>
+      <c r="W97">
+        <v>144.70585815817398</v>
+      </c>
+      <c r="X97">
+        <f t="shared" si="30"/>
+        <v>7.4623045548164555</v>
+      </c>
+      <c r="Y97">
+        <v>5.1999222878140809</v>
+      </c>
+      <c r="Z97" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA97" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB97" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC97" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD97" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE97" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF97" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG97" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="98" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>5</v>
+      </c>
+      <c r="B98" s="1">
+        <v>42996</v>
+      </c>
+      <c r="C98">
+        <v>162.55000000000001</v>
+      </c>
+      <c r="D98">
+        <v>163.69999999999999</v>
+      </c>
+      <c r="E98">
+        <v>160</v>
+      </c>
+      <c r="F98">
+        <v>161.65</v>
+      </c>
+      <c r="G98">
+        <f>_xll.TA_TYPPRICE(D98,E98,F98)</f>
+        <v>161.78333333333333</v>
+      </c>
+      <c r="H98">
+        <v>161.12884111884756</v>
+      </c>
+      <c r="I98" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J98">
+        <v>160.71492173218348</v>
+      </c>
+      <c r="K98">
+        <v>153.75625666906004</v>
+      </c>
+      <c r="L98" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M98" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N98">
+        <v>65.747865663637654</v>
+      </c>
+      <c r="O98" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P98" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q98">
+        <f t="shared" si="25"/>
+        <v>1.6500000000000057</v>
+      </c>
+      <c r="R98">
+        <f t="shared" si="26"/>
+        <v>3.6999999999999886</v>
+      </c>
+      <c r="S98">
+        <f t="shared" si="27"/>
+        <v>0.44594594594594883</v>
+      </c>
+      <c r="T98" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U98" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V98">
+        <v>153.62690691099192</v>
+      </c>
+      <c r="W98">
+        <v>145.96097977608702</v>
+      </c>
+      <c r="X98">
+        <f t="shared" si="30"/>
+        <v>7.665927134904905</v>
+      </c>
+      <c r="Y98">
+        <v>5.6931232572322461</v>
+      </c>
+      <c r="Z98" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA98" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB98" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC98" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD98" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE98" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF98" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG98" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="99" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>5</v>
+      </c>
+      <c r="B99" s="1">
+        <v>42997</v>
+      </c>
+      <c r="C99">
+        <v>162.25</v>
+      </c>
+      <c r="D99">
+        <v>163</v>
+      </c>
+      <c r="E99">
+        <v>159.5</v>
+      </c>
+      <c r="F99">
+        <v>161</v>
+      </c>
+      <c r="G99">
+        <f>_xll.TA_TYPPRICE(D99,E99,F99)</f>
+        <v>161.16666666666666</v>
+      </c>
+      <c r="H99">
+        <v>161.14775389275712</v>
+      </c>
+      <c r="I99" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J99">
+        <v>161.22271690280937</v>
+      </c>
+      <c r="K99">
+        <v>155.03264407593559</v>
+      </c>
+      <c r="L99" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M99" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N99">
+        <v>63.380966274444987</v>
+      </c>
+      <c r="O99" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P99" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q99">
+        <f t="shared" si="25"/>
+        <v>1.5</v>
+      </c>
+      <c r="R99">
+        <f t="shared" si="26"/>
+        <v>3.5</v>
+      </c>
+      <c r="S99">
+        <f t="shared" si="27"/>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="T99" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U99" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V99">
+        <v>154.76122892468547</v>
+      </c>
+      <c r="W99">
+        <v>147.07498127415465</v>
+      </c>
+      <c r="X99">
+        <f t="shared" si="30"/>
+        <v>7.6862476505308166</v>
+      </c>
+      <c r="Y99">
+        <v>6.0917481358919598</v>
+      </c>
+      <c r="Z99" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA99" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB99" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC99" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD99" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE99" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF99" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG99" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="100" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>5</v>
+      </c>
+      <c r="B100" s="1">
+        <v>42998</v>
+      </c>
+      <c r="C100">
+        <v>161.65</v>
+      </c>
+      <c r="D100">
+        <v>161.65</v>
+      </c>
+      <c r="E100">
+        <v>156.80000000000001</v>
+      </c>
+      <c r="F100">
+        <v>157.4</v>
+      </c>
+      <c r="G100">
+        <f>_xll.TA_TYPPRICE(D100,E100,F100)</f>
+        <v>158.61666666666667</v>
+      </c>
+      <c r="H100">
+        <v>159.8822102797119</v>
+      </c>
+      <c r="I100" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J100">
+        <v>161.31766870218507</v>
+      </c>
+      <c r="K100">
+        <v>155.4253898368388</v>
+      </c>
+      <c r="L100" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M100" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N100">
+        <v>50.736096843724013</v>
+      </c>
+      <c r="O100" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P100" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q100">
+        <f t="shared" si="25"/>
+        <v>0.59999999999999432</v>
+      </c>
+      <c r="R100">
+        <f t="shared" si="26"/>
+        <v>4.8499999999999943</v>
+      </c>
+      <c r="S100">
+        <f t="shared" si="27"/>
+        <v>0.12371134020618454</v>
+      </c>
+      <c r="T100" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U100" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V100">
+        <v>155.16719370550308</v>
+      </c>
+      <c r="W100">
+        <v>147.83979747606912</v>
+      </c>
+      <c r="X100">
+        <f t="shared" si="30"/>
+        <v>7.3273962294339583</v>
+      </c>
+      <c r="Y100">
+        <v>6.3388777546003592</v>
+      </c>
+      <c r="Z100" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA100" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB100" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC100" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD100" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE100" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF100" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG100" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="101" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>5</v>
+      </c>
+      <c r="B101" s="1">
+        <v>42999</v>
+      </c>
+      <c r="C101">
+        <v>158</v>
+      </c>
+      <c r="D101">
+        <v>160.5</v>
+      </c>
+      <c r="E101">
+        <v>155.25</v>
+      </c>
+      <c r="F101">
+        <v>157.44999999999999</v>
+      </c>
+      <c r="G101">
+        <f>_xll.TA_TYPPRICE(D101,E101,F101)</f>
+        <v>157.73333333333332</v>
+      </c>
+      <c r="H101">
+        <v>158.80777180652262</v>
+      </c>
+      <c r="I101" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J101">
+        <v>161.13596454614395</v>
+      </c>
+      <c r="K101">
+        <v>155.38641431754129</v>
+      </c>
+      <c r="L101" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M101" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N101">
+        <v>50.906140402711777</v>
+      </c>
+      <c r="O101" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P101" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q101">
+        <f t="shared" si="25"/>
+        <v>2.1999999999999886</v>
+      </c>
+      <c r="R101">
+        <f t="shared" si="26"/>
+        <v>5.25</v>
+      </c>
+      <c r="S101">
+        <f t="shared" si="27"/>
+        <v>0.41904761904761689</v>
+      </c>
+      <c r="T101" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U101" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V101">
+        <v>155.51839467388723</v>
+      </c>
+      <c r="W101">
+        <v>148.55166432969364</v>
+      </c>
+      <c r="X101">
+        <f t="shared" si="30"/>
+        <v>6.9667303441935928</v>
+      </c>
+      <c r="Y101">
+        <v>6.4644482725190056</v>
+      </c>
+      <c r="Z101" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA101" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB101" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC101" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD101" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE101" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF101" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG101" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="102" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>5</v>
+      </c>
+      <c r="B102" s="1">
+        <v>43000</v>
+      </c>
+      <c r="C102">
+        <v>156</v>
+      </c>
+      <c r="D102">
+        <v>157.35</v>
+      </c>
+      <c r="E102">
+        <v>150.5</v>
+      </c>
+      <c r="F102">
+        <v>151.25</v>
+      </c>
+      <c r="G102">
+        <f>_xll.TA_TYPPRICE(D102,E102,F102)</f>
+        <v>153.03333333333333</v>
+      </c>
+      <c r="H102">
+        <v>155.92055256992796</v>
+      </c>
+      <c r="I102" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J102">
+        <v>160.2946390914453</v>
+      </c>
+      <c r="K102">
+        <v>154.3005444691988</v>
+      </c>
+      <c r="L102" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M102" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N102">
+        <v>33.163362278625698</v>
+      </c>
+      <c r="O102" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P102" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q102">
+        <f t="shared" si="25"/>
+        <v>0.75</v>
+      </c>
+      <c r="R102">
+        <f t="shared" si="26"/>
+        <v>6.8499999999999943</v>
+      </c>
+      <c r="S102">
+        <f t="shared" si="27"/>
+        <v>0.1094890510948906</v>
+      </c>
+      <c r="T102" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U102" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V102">
+        <v>154.86171857021228</v>
+      </c>
+      <c r="W102">
+        <v>148.75154104601262</v>
+      </c>
+      <c r="X102">
+        <f t="shared" si="30"/>
+        <v>6.1101775241996563</v>
+      </c>
+      <c r="Y102">
+        <v>6.3935941228551361</v>
+      </c>
+      <c r="Z102" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA102" t="str">
+        <f t="shared" si="32"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AB102" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC102" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD102" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE102" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF102" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG102" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="103" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>5</v>
+      </c>
+      <c r="B103" s="1">
+        <v>43003</v>
+      </c>
+      <c r="C103">
+        <v>152.30000000000001</v>
+      </c>
+      <c r="D103">
+        <v>152.30000000000001</v>
+      </c>
+      <c r="E103">
+        <v>143.4</v>
+      </c>
+      <c r="F103">
+        <v>146.80000000000001</v>
+      </c>
+      <c r="G103">
+        <f>_xll.TA_TYPPRICE(D103,E103,F103)</f>
+        <v>147.50000000000003</v>
+      </c>
+      <c r="H103">
+        <v>151.71027628496398</v>
+      </c>
+      <c r="I103" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J103">
+        <v>158.51805262667969</v>
+      </c>
+      <c r="K103">
+        <v>151.87820125382129</v>
+      </c>
+      <c r="L103" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M103" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N103">
+        <v>25.263447585709493</v>
+      </c>
+      <c r="O103" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P103" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q103">
+        <f t="shared" si="25"/>
+        <v>3.4000000000000057</v>
+      </c>
+      <c r="R103">
+        <f t="shared" si="26"/>
+        <v>8.9000000000000057</v>
+      </c>
+      <c r="S103">
+        <f t="shared" si="27"/>
+        <v>0.38202247191011274</v>
+      </c>
+      <c r="T103" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U103" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V103">
+        <v>153.62145417479499</v>
+      </c>
+      <c r="W103">
+        <v>148.60698245001169</v>
+      </c>
+      <c r="X103">
+        <f t="shared" si="30"/>
+        <v>5.0144717247833057</v>
+      </c>
+      <c r="Y103">
+        <v>6.11776964324077</v>
+      </c>
+      <c r="Z103" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA103" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB103" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC103" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD103" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE103" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF103" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG103" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="104" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>5</v>
+      </c>
+      <c r="B104" s="1">
+        <v>43004</v>
+      </c>
+      <c r="C104">
+        <v>146.80000000000001</v>
+      </c>
+      <c r="D104">
+        <v>153.9</v>
+      </c>
+      <c r="E104">
+        <v>146.80000000000001</v>
+      </c>
+      <c r="F104">
+        <v>152</v>
+      </c>
+      <c r="G104">
+        <f>_xll.TA_TYPPRICE(D104,E104,F104)</f>
+        <v>150.9</v>
+      </c>
+      <c r="H104">
+        <v>151.30513814248201</v>
+      </c>
+      <c r="I104" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J104">
+        <v>157.49181870963977</v>
+      </c>
+      <c r="K104">
+        <v>150.74971208630544</v>
+      </c>
+      <c r="L104" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M104" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N104">
+        <v>44.555408722524184</v>
+      </c>
+      <c r="O104" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P104" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q104">
+        <f t="shared" si="25"/>
+        <v>5.1999999999999886</v>
+      </c>
+      <c r="R104">
+        <f t="shared" si="26"/>
+        <v>7.0999999999999943</v>
+      </c>
+      <c r="S104">
+        <f t="shared" si="27"/>
+        <v>0.73239436619718212</v>
+      </c>
+      <c r="T104" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U104" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V104">
+        <v>153.371999686365</v>
+      </c>
+      <c r="W104">
+        <v>148.85831708334416</v>
+      </c>
+      <c r="X104">
+        <f t="shared" si="30"/>
+        <v>4.5136826030208397</v>
+      </c>
+      <c r="Y104">
+        <v>5.7969522351967839</v>
+      </c>
+      <c r="Z104" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA104" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB104" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC104" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD104" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE104" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF104" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG104" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="105" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B105" s="1"/>
     </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B106" s="1"/>
     </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B107" s="1"/>
     </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B108" s="1"/>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B109" s="1"/>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B110" s="1"/>
     </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B111" s="1"/>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B112" s="1"/>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.25">
